--- a/public/downloads/Template Files/Profit and Loss report result.xlsx
+++ b/public/downloads/Template Files/Profit and Loss report result.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RMG\Documents\vs1_cloud_project\public\downloads\Template FIles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Meteor\spreadsheet_template\New folder\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2C2743B-16DF-4B26-BA2D-3C80AF822AB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28710" windowHeight="9495" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Profit and Loss Report Result" sheetId="1" r:id="rId1"/>
@@ -22,21 +23,32 @@
   <definedNames>
     <definedName name="ExternalData_1" localSheetId="2" hidden="1">'Raw Data'!$A$1:$AD$13</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" keepAlive="1" name="Query - TProfitAndLossPeriodCompareReport?IgnoreDates=false&amp;DateFrom=%222022-10-27%22&amp;Da" description="Connection to the 'TProfitAndLossPeriodCompareReport?IgnoreDates=false&amp;DateFrom=%222022-10-27%22&amp;Da' query in the workbook." type="5" refreshedVersion="6" background="1" saveData="1">
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
+  <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF00000000}" keepAlive="1" name="Query - TProfitAndLossPeriodCompareReport?IgnoreDates=false&amp;DateFrom=%222022-10-27%22&amp;Da" description="Connection to the 'TProfitAndLossPeriodCompareReport?IgnoreDates=false&amp;DateFrom=%222022-10-27%22&amp;Da' query in the workbook." type="5" refreshedVersion="6" background="1" saveData="1">
     <dbPr connection="Provider=Microsoft.Mashup.OleDb.1;Data Source=$Workbook$;Location=&quot;TProfitAndLossPeriodCompareReport?IgnoreDates=false&amp;DateFrom=%222022-10-27%22&amp;Da&quot;;Extended Properties=&quot;&quot;" command="SELECT * FROM [TProfitAndLossPeriodCompareReport?IgnoreDates=false&amp;DateFrom=%222022-10-27%22&amp;Da]"/>
   </connection>
-  <connection id="2" keepAlive="1" name="Query - TProfitAndLossReport?standardLayout=&amp;ListType=%27Detail%27" description="Connection to the 'TProfitAndLossReport?standardLayout=&amp;ListType=%27Detail%27' query in the workbook." type="5" refreshedVersion="6" background="1" saveData="1">
+  <connection id="2" xr16:uid="{00000000-0015-0000-FFFF-FFFF01000000}" keepAlive="1" name="Query - TProfitAndLossReport?standardLayout=&amp;ListType=%27Detail%27" description="Connection to the 'TProfitAndLossReport?standardLayout=&amp;ListType=%27Detail%27' query in the workbook." type="5" refreshedVersion="6" background="1" saveData="1">
     <dbPr connection="Provider=Microsoft.Mashup.OleDb.1;Data Source=$Workbook$;Location=&quot;TProfitAndLossReport?standardLayout=&amp;ListType=%27Detail%27&quot;;Extended Properties=&quot;&quot;" command="SELECT * FROM [TProfitAndLossReport?standardLayout=&amp;ListType=%27Detail%27]"/>
   </connection>
 </connections>
@@ -174,7 +186,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -210,12 +222,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1041,7 +1052,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_1" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="ExternalData_1" connectionId="2" xr16:uid="{00000000-0016-0000-0200-000000000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="61">
     <queryTableFields count="30">
       <queryTableField id="31" name="seqno" tableColumnId="32"/>
@@ -1080,41 +1091,41 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="TProfitAndLossReport_standardLayout__ListType__27Detail_27" displayName="TProfitAndLossReport_standardLayout__ListType__27Detail_27" ref="A1:AD13" tableType="queryTable" totalsRowShown="0" headerRowDxfId="31" dataDxfId="30">
-  <autoFilter ref="A1:AD13"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="TProfitAndLossReport_standardLayout__ListType__27Detail_27" displayName="TProfitAndLossReport_standardLayout__ListType__27Detail_27" ref="A1:AD13" tableType="queryTable" totalsRowShown="0" headerRowDxfId="31" dataDxfId="30">
+  <autoFilter ref="A1:AD13" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="30">
-    <tableColumn id="32" uniqueName="32" name="seqno" queryTableFieldId="31" dataDxfId="29"/>
-    <tableColumn id="33" uniqueName="33" name="AccountID" queryTableFieldId="32" dataDxfId="28"/>
-    <tableColumn id="34" uniqueName="34" name="IsRoot" queryTableFieldId="33" dataDxfId="27"/>
-    <tableColumn id="35" uniqueName="35" name="AccountNo" queryTableFieldId="34" dataDxfId="26"/>
-    <tableColumn id="36" uniqueName="36" name="AccountName" queryTableFieldId="35" dataDxfId="25"/>
-    <tableColumn id="37" uniqueName="37" name="FinalOrder" queryTableFieldId="36" dataDxfId="24"/>
-    <tableColumn id="38" uniqueName="38" name="AccountHeaderOrder" queryTableFieldId="37" dataDxfId="23"/>
-    <tableColumn id="39" uniqueName="39" name="AccountSub1Order" queryTableFieldId="38" dataDxfId="22"/>
-    <tableColumn id="40" uniqueName="40" name="AccountSub2Order" queryTableFieldId="39" dataDxfId="21"/>
-    <tableColumn id="41" uniqueName="41" name="AccountSub3Order" queryTableFieldId="40" dataDxfId="20"/>
-    <tableColumn id="42" uniqueName="42" name="AccountType" queryTableFieldId="41" dataDxfId="19"/>
-    <tableColumn id="43" uniqueName="43" name="Level1" queryTableFieldId="42" dataDxfId="18"/>
-    <tableColumn id="44" uniqueName="44" name="Account Type" queryTableFieldId="43" dataDxfId="17"/>
-    <tableColumn id="45" uniqueName="45" name="Default_AmountColumnInc" queryTableFieldId="44" dataDxfId="16"/>
-    <tableColumn id="46" uniqueName="46" name="Warehouse_AmountColumnInc" queryTableFieldId="45" dataDxfId="15"/>
-    <tableColumn id="47" uniqueName="47" name="Head Office_AmountColumnInc" queryTableFieldId="46" dataDxfId="14"/>
-    <tableColumn id="48" uniqueName="48" name="Dept 2_AmountColumnInc" queryTableFieldId="47" dataDxfId="13"/>
-    <tableColumn id="49" uniqueName="49" name="Storage Room 2_AmountColumnInc" queryTableFieldId="48" dataDxfId="12"/>
-    <tableColumn id="50" uniqueName="50" name="Test Dept 1_AmountColumnInc" queryTableFieldId="49" dataDxfId="11"/>
-    <tableColumn id="51" uniqueName="51" name="Default_AmountColumnEx" queryTableFieldId="50" dataDxfId="10"/>
-    <tableColumn id="52" uniqueName="52" name="Warehouse_AmountColumnEx" queryTableFieldId="51" dataDxfId="9"/>
-    <tableColumn id="53" uniqueName="53" name="Head Office_AmountColumnEx" queryTableFieldId="52" dataDxfId="8"/>
-    <tableColumn id="54" uniqueName="54" name="Dept 2_AmountColumnEx" queryTableFieldId="53" dataDxfId="7"/>
-    <tableColumn id="55" uniqueName="55" name="Storage Room 2_AmountColumnEx" queryTableFieldId="54" dataDxfId="6"/>
-    <tableColumn id="56" uniqueName="56" name="Test Dept 1_AmountColumnEx" queryTableFieldId="55" dataDxfId="5"/>
-    <tableColumn id="57" uniqueName="57" name="TotalAmountInc" queryTableFieldId="56" dataDxfId="4"/>
-    <tableColumn id="58" uniqueName="58" name="TotalAmountEx" queryTableFieldId="57" dataDxfId="3"/>
-    <tableColumn id="59" uniqueName="59" name="SubTotalInc" queryTableFieldId="58" dataDxfId="2"/>
-    <tableColumn id="60" uniqueName="60" name="SubTotalEx" queryTableFieldId="59" dataDxfId="1"/>
-    <tableColumn id="61" uniqueName="61" name="HideTotal" queryTableFieldId="60" dataDxfId="0"/>
+    <tableColumn id="32" xr3:uid="{00000000-0010-0000-0000-000020000000}" uniqueName="32" name="seqno" queryTableFieldId="31" dataDxfId="29"/>
+    <tableColumn id="33" xr3:uid="{00000000-0010-0000-0000-000021000000}" uniqueName="33" name="AccountID" queryTableFieldId="32" dataDxfId="28"/>
+    <tableColumn id="34" xr3:uid="{00000000-0010-0000-0000-000022000000}" uniqueName="34" name="IsRoot" queryTableFieldId="33" dataDxfId="27"/>
+    <tableColumn id="35" xr3:uid="{00000000-0010-0000-0000-000023000000}" uniqueName="35" name="AccountNo" queryTableFieldId="34" dataDxfId="26"/>
+    <tableColumn id="36" xr3:uid="{00000000-0010-0000-0000-000024000000}" uniqueName="36" name="AccountName" queryTableFieldId="35" dataDxfId="25"/>
+    <tableColumn id="37" xr3:uid="{00000000-0010-0000-0000-000025000000}" uniqueName="37" name="FinalOrder" queryTableFieldId="36" dataDxfId="24"/>
+    <tableColumn id="38" xr3:uid="{00000000-0010-0000-0000-000026000000}" uniqueName="38" name="AccountHeaderOrder" queryTableFieldId="37" dataDxfId="23"/>
+    <tableColumn id="39" xr3:uid="{00000000-0010-0000-0000-000027000000}" uniqueName="39" name="AccountSub1Order" queryTableFieldId="38" dataDxfId="22"/>
+    <tableColumn id="40" xr3:uid="{00000000-0010-0000-0000-000028000000}" uniqueName="40" name="AccountSub2Order" queryTableFieldId="39" dataDxfId="21"/>
+    <tableColumn id="41" xr3:uid="{00000000-0010-0000-0000-000029000000}" uniqueName="41" name="AccountSub3Order" queryTableFieldId="40" dataDxfId="20"/>
+    <tableColumn id="42" xr3:uid="{00000000-0010-0000-0000-00002A000000}" uniqueName="42" name="AccountType" queryTableFieldId="41" dataDxfId="19"/>
+    <tableColumn id="43" xr3:uid="{00000000-0010-0000-0000-00002B000000}" uniqueName="43" name="Level1" queryTableFieldId="42" dataDxfId="18"/>
+    <tableColumn id="44" xr3:uid="{00000000-0010-0000-0000-00002C000000}" uniqueName="44" name="Account Type" queryTableFieldId="43" dataDxfId="17"/>
+    <tableColumn id="45" xr3:uid="{00000000-0010-0000-0000-00002D000000}" uniqueName="45" name="Default_AmountColumnInc" queryTableFieldId="44" dataDxfId="16"/>
+    <tableColumn id="46" xr3:uid="{00000000-0010-0000-0000-00002E000000}" uniqueName="46" name="Warehouse_AmountColumnInc" queryTableFieldId="45" dataDxfId="15"/>
+    <tableColumn id="47" xr3:uid="{00000000-0010-0000-0000-00002F000000}" uniqueName="47" name="Head Office_AmountColumnInc" queryTableFieldId="46" dataDxfId="14"/>
+    <tableColumn id="48" xr3:uid="{00000000-0010-0000-0000-000030000000}" uniqueName="48" name="Dept 2_AmountColumnInc" queryTableFieldId="47" dataDxfId="13"/>
+    <tableColumn id="49" xr3:uid="{00000000-0010-0000-0000-000031000000}" uniqueName="49" name="Storage Room 2_AmountColumnInc" queryTableFieldId="48" dataDxfId="12"/>
+    <tableColumn id="50" xr3:uid="{00000000-0010-0000-0000-000032000000}" uniqueName="50" name="Test Dept 1_AmountColumnInc" queryTableFieldId="49" dataDxfId="11"/>
+    <tableColumn id="51" xr3:uid="{00000000-0010-0000-0000-000033000000}" uniqueName="51" name="Default_AmountColumnEx" queryTableFieldId="50" dataDxfId="10"/>
+    <tableColumn id="52" xr3:uid="{00000000-0010-0000-0000-000034000000}" uniqueName="52" name="Warehouse_AmountColumnEx" queryTableFieldId="51" dataDxfId="9"/>
+    <tableColumn id="53" xr3:uid="{00000000-0010-0000-0000-000035000000}" uniqueName="53" name="Head Office_AmountColumnEx" queryTableFieldId="52" dataDxfId="8"/>
+    <tableColumn id="54" xr3:uid="{00000000-0010-0000-0000-000036000000}" uniqueName="54" name="Dept 2_AmountColumnEx" queryTableFieldId="53" dataDxfId="7"/>
+    <tableColumn id="55" xr3:uid="{00000000-0010-0000-0000-000037000000}" uniqueName="55" name="Storage Room 2_AmountColumnEx" queryTableFieldId="54" dataDxfId="6"/>
+    <tableColumn id="56" xr3:uid="{00000000-0010-0000-0000-000038000000}" uniqueName="56" name="Test Dept 1_AmountColumnEx" queryTableFieldId="55" dataDxfId="5"/>
+    <tableColumn id="57" xr3:uid="{00000000-0010-0000-0000-000039000000}" uniqueName="57" name="TotalAmountInc" queryTableFieldId="56" dataDxfId="4"/>
+    <tableColumn id="58" xr3:uid="{00000000-0010-0000-0000-00003A000000}" uniqueName="58" name="TotalAmountEx" queryTableFieldId="57" dataDxfId="3"/>
+    <tableColumn id="59" xr3:uid="{00000000-0010-0000-0000-00003B000000}" uniqueName="59" name="SubTotalInc" queryTableFieldId="58" dataDxfId="2"/>
+    <tableColumn id="60" xr3:uid="{00000000-0010-0000-0000-00003C000000}" uniqueName="60" name="SubTotalEx" queryTableFieldId="59" dataDxfId="1"/>
+    <tableColumn id="61" xr3:uid="{00000000-0010-0000-0000-00003D000000}" uniqueName="61" name="HideTotal" queryTableFieldId="60" dataDxfId="0"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleLight4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -1414,10 +1425,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
@@ -1436,12 +1447,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="4"/>
+      <c r="A1" s="3"/>
       <c r="B1" s="1">
         <f>'[1]Raw Data'!B1</f>
         <v>44835.000196759262</v>
       </c>
-      <c r="C1" s="2" t="str">
+      <c r="C1" t="str">
         <f>'[1]Raw Data'!C1</f>
         <v>Oct 2022 Percentage</v>
       </c>
@@ -1449,7 +1460,7 @@
         <f>'[1]Raw Data'!D1</f>
         <v>44866.000196759262</v>
       </c>
-      <c r="E1" s="2" t="str">
+      <c r="E1" t="str">
         <f>'[1]Raw Data'!E1</f>
         <v>Nov 2022 Percentage</v>
       </c>
@@ -1457,472 +1468,428 @@
         <f>'[1]Raw Data'!F1</f>
         <v>44896.000196759262</v>
       </c>
-      <c r="G1" s="2" t="str">
+      <c r="G1" t="str">
         <f>'[1]Raw Data'!G1</f>
         <v>Dec 2022 Percentage</v>
       </c>
-      <c r="H1" s="2" t="str">
+      <c r="H1" t="str">
         <f>'[1]Raw Data'!H1</f>
         <v>Jan 2023</v>
       </c>
-      <c r="I1" s="2" t="str">
+      <c r="I1" t="str">
         <f>'[1]Raw Data'!I1</f>
         <v>Jan 2023 Percentage</v>
       </c>
-      <c r="J1" s="2" t="str">
+      <c r="J1" t="str">
         <f>'[1]Raw Data'!J1</f>
         <v>Running Total</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
-      <c r="B2" s="2" t="str">
+      <c r="A2" s="3"/>
+      <c r="B2" t="str">
         <f>'[1]Raw Data'!B2</f>
         <v>Income</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="str">
+      <c r="A3" t="str">
         <f>'[1]Raw Data'!A3</f>
         <v>179 -Acc Income</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3">
         <f>'[1]Raw Data'!B3</f>
         <v>0</v>
       </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2">
+      <c r="D3">
         <f>'[1]Raw Data'!D3</f>
         <v>-50</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3">
         <f>'[1]Raw Data'!E3</f>
         <v>-0.12300000000000001</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3">
         <f>'[1]Raw Data'!F3</f>
         <v>0</v>
       </c>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2">
+      <c r="H3">
         <f>'[1]Raw Data'!H3</f>
         <v>-23.2</v>
       </c>
-      <c r="I3" s="2">
+      <c r="I3">
         <f>'[1]Raw Data'!I3</f>
         <v>-9.0000000000000011E-3</v>
       </c>
-      <c r="J3" s="2">
+      <c r="J3">
         <f>'[1]Raw Data'!J3</f>
         <v>-73.2</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="str">
+      <c r="A4" t="str">
         <f>'[1]Raw Data'!A4</f>
         <v>230 -Acc Income test</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4">
         <f>'[1]Raw Data'!B4</f>
         <v>0.5</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4">
         <f>'[1]Raw Data'!C4</f>
         <v>0</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4">
         <f>'[1]Raw Data'!D4</f>
         <v>0</v>
       </c>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2">
+      <c r="F4">
         <f>'[1]Raw Data'!F4</f>
         <v>0</v>
       </c>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2">
+      <c r="H4">
         <f>'[1]Raw Data'!H4</f>
         <v>0</v>
       </c>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2">
+      <c r="J4">
         <f>'[1]Raw Data'!J4</f>
         <v>0.5</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="str">
+      <c r="A5" t="str">
         <f>'[1]Raw Data'!A5</f>
         <v>7 -Sales</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5">
         <f>'[1]Raw Data'!B5</f>
         <v>4375.1400000000003</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5">
         <f>'[1]Raw Data'!C5</f>
         <v>1</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5">
         <f>'[1]Raw Data'!D5</f>
         <v>455.22</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5">
         <f>'[1]Raw Data'!E5</f>
         <v>1.123</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5">
         <f>'[1]Raw Data'!F5</f>
         <v>373</v>
       </c>
-      <c r="G5" s="2">
+      <c r="G5">
         <f>'[1]Raw Data'!G5</f>
         <v>1</v>
       </c>
-      <c r="H5" s="2">
+      <c r="H5">
         <f>'[1]Raw Data'!H5</f>
         <v>1652.78</v>
       </c>
-      <c r="I5" s="2">
+      <c r="I5">
         <f>'[1]Raw Data'!I5</f>
         <v>0.63300000000000001</v>
       </c>
-      <c r="J5" s="2">
+      <c r="J5">
         <f>'[1]Raw Data'!J5</f>
         <v>6856.14</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="str">
+      <c r="A6" t="str">
         <f>'[1]Raw Data'!A6</f>
         <v>33 -UnInvoiced SO</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6">
         <f>'[1]Raw Data'!B6</f>
         <v>0</v>
       </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2">
+      <c r="D6">
         <f>'[1]Raw Data'!D6</f>
         <v>0</v>
       </c>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2">
+      <c r="F6">
         <f>'[1]Raw Data'!F6</f>
         <v>0</v>
       </c>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2">
+      <c r="H6">
         <f>'[1]Raw Data'!H6</f>
         <v>980.89</v>
       </c>
-      <c r="I6" s="2">
+      <c r="I6">
         <f>'[1]Raw Data'!I6</f>
         <v>0.376</v>
       </c>
-      <c r="J6" s="2">
+      <c r="J6">
         <f>'[1]Raw Data'!J6</f>
         <v>980.89</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="str">
+      <c r="A7" t="str">
         <f>'[1]Raw Data'!A7</f>
         <v>Total Income</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7">
         <f>'[1]Raw Data'!B7</f>
         <v>4375.6400000000003</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7">
         <f>'[1]Raw Data'!C7</f>
         <v>1</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7">
         <f>'[1]Raw Data'!D7</f>
         <v>405.22</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7">
         <f>'[1]Raw Data'!E7</f>
         <v>1</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7">
         <f>'[1]Raw Data'!F7</f>
         <v>373</v>
       </c>
-      <c r="G7" s="2">
+      <c r="G7">
         <f>'[1]Raw Data'!G7</f>
         <v>1</v>
       </c>
-      <c r="H7" s="2">
+      <c r="H7">
         <f>'[1]Raw Data'!H7</f>
         <v>2610.4699999999998</v>
       </c>
-      <c r="I7" s="2">
+      <c r="I7">
         <f>'[1]Raw Data'!I7</f>
         <v>1</v>
       </c>
-      <c r="J7" s="2">
+      <c r="J7">
         <f>'[1]Raw Data'!J7</f>
         <v>7764.33</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="str">
+      <c r="A8" t="str">
         <f>'[1]Raw Data'!A8</f>
         <v>Cost of Goods Sold</v>
       </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="str">
+      <c r="A9" t="str">
         <f>'[1]Raw Data'!A9</f>
         <v>4 -Cost of Goods Sold</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9">
         <f>'[1]Raw Data'!B9</f>
         <v>0</v>
       </c>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2">
+      <c r="D9">
         <f>'[1]Raw Data'!D9</f>
         <v>-710.14</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9">
         <f>'[1]Raw Data'!E9</f>
         <v>1</v>
       </c>
-      <c r="F9" s="2">
+      <c r="F9">
         <f>'[1]Raw Data'!F9</f>
         <v>0</v>
       </c>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2">
+      <c r="H9">
         <f>'[1]Raw Data'!H9</f>
         <v>-714.21</v>
       </c>
-      <c r="I9" s="2">
+      <c r="I9">
         <f>'[1]Raw Data'!I9</f>
         <v>1</v>
       </c>
-      <c r="J9" s="2">
+      <c r="J9">
         <f>'[1]Raw Data'!J9</f>
         <v>-1424.35</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="str">
+      <c r="A10" t="str">
         <f>'[1]Raw Data'!A10</f>
         <v>Total COGS</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10">
         <f>'[1]Raw Data'!B10</f>
         <v>0</v>
       </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2">
+      <c r="D10">
         <f>'[1]Raw Data'!D10</f>
         <v>-710.14</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E10">
         <f>'[1]Raw Data'!E10</f>
         <v>1</v>
       </c>
-      <c r="F10" s="2">
+      <c r="F10">
         <f>'[1]Raw Data'!F10</f>
         <v>0</v>
       </c>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2">
+      <c r="H10">
         <f>'[1]Raw Data'!H10</f>
         <v>-714.21</v>
       </c>
-      <c r="I10" s="2">
+      <c r="I10">
         <f>'[1]Raw Data'!I10</f>
         <v>1</v>
       </c>
-      <c r="J10" s="2">
+      <c r="J10">
         <f>'[1]Raw Data'!J10</f>
         <v>-1424.35</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="str">
+      <c r="A11" t="str">
         <f>'[1]Raw Data'!A11</f>
         <v>Gross Profit</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11">
         <f>'[1]Raw Data'!B11</f>
         <v>4375.6400000000003</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11">
         <f>'[1]Raw Data'!C11</f>
         <v>1</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11">
         <f>'[1]Raw Data'!D11</f>
         <v>-304.92</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E11">
         <f>'[1]Raw Data'!E11</f>
         <v>1</v>
       </c>
-      <c r="F11" s="2">
+      <c r="F11">
         <f>'[1]Raw Data'!F11</f>
         <v>373</v>
       </c>
-      <c r="G11" s="2">
+      <c r="G11">
         <f>'[1]Raw Data'!G11</f>
         <v>1</v>
       </c>
-      <c r="H11" s="2">
+      <c r="H11">
         <f>'[1]Raw Data'!H11</f>
         <v>1896.26</v>
       </c>
-      <c r="I11" s="2">
+      <c r="I11">
         <f>'[1]Raw Data'!I11</f>
         <v>1</v>
       </c>
-      <c r="J11" s="2">
+      <c r="J11">
         <f>'[1]Raw Data'!J11</f>
         <v>6339.98</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="str">
+      <c r="A12" t="str">
         <f>'[1]Raw Data'!A12</f>
         <v>Expense</v>
       </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="str">
+      <c r="A13" t="str">
         <f>'[1]Raw Data'!A13</f>
         <v>48 -Admin Fee (Credit Card)</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B13">
         <f>'[1]Raw Data'!B13</f>
         <v>0</v>
       </c>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2">
+      <c r="D13">
         <f>'[1]Raw Data'!D13</f>
         <v>-10</v>
       </c>
-      <c r="E13" s="2">
+      <c r="E13">
         <f>'[1]Raw Data'!E13</f>
         <v>1</v>
       </c>
-      <c r="F13" s="2">
+      <c r="F13">
         <f>'[1]Raw Data'!F13</f>
         <v>0</v>
       </c>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2">
+      <c r="H13">
         <f>'[1]Raw Data'!H13</f>
         <v>0</v>
       </c>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2">
+      <c r="J13">
         <f>'[1]Raw Data'!J13</f>
         <v>-10</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="str">
+      <c r="A14" t="str">
         <f>'[1]Raw Data'!A14</f>
         <v>Total Expenses</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B14">
         <f>'[1]Raw Data'!B14</f>
         <v>0</v>
       </c>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2">
+      <c r="D14">
         <f>'[1]Raw Data'!D14</f>
         <v>-10</v>
       </c>
-      <c r="E14" s="2">
+      <c r="E14">
         <f>'[1]Raw Data'!E14</f>
         <v>1</v>
       </c>
-      <c r="F14" s="2">
+      <c r="F14">
         <f>'[1]Raw Data'!F14</f>
         <v>0</v>
       </c>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2">
+      <c r="H14">
         <f>'[1]Raw Data'!H14</f>
         <v>0</v>
       </c>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2">
+      <c r="J14">
         <f>'[1]Raw Data'!J14</f>
         <v>-10</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="str">
+      <c r="A15" t="str">
         <f>'[1]Raw Data'!A15</f>
         <v>Net Income</v>
       </c>
-      <c r="B15" s="2">
+      <c r="B15">
         <f>'[1]Raw Data'!B15</f>
         <v>4375.6400000000003</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C15">
         <f>'[1]Raw Data'!C15</f>
         <v>1</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D15">
         <f>'[1]Raw Data'!D15</f>
         <v>-314.92</v>
       </c>
-      <c r="E15" s="2">
+      <c r="E15">
         <f>'[1]Raw Data'!E15</f>
         <v>1</v>
       </c>
-      <c r="F15" s="2">
+      <c r="F15">
         <f>'[1]Raw Data'!F15</f>
         <v>373</v>
       </c>
-      <c r="G15" s="2">
+      <c r="G15">
         <f>'[1]Raw Data'!G15</f>
         <v>1</v>
       </c>
-      <c r="H15" s="2">
+      <c r="H15">
         <f>'[1]Raw Data'!H15</f>
         <v>1896.26</v>
       </c>
-      <c r="I15" s="2">
+      <c r="I15">
         <f>'[1]Raw Data'!I15</f>
         <v>1</v>
       </c>
-      <c r="J15" s="2">
+      <c r="J15">
         <f>'[1]Raw Data'!J15</f>
         <v>6329.98</v>
       </c>
@@ -1936,7 +1903,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1950,11 +1917,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AD13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B1" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2017,1199 +1984,1199 @@
     <col min="60" max="60" width="20.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" s="3" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:30" s="2" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="N1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="O1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="P1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="Q1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="R1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="S1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="T1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="U1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="V1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="W1" s="3" t="s">
+      <c r="W1" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="X1" s="3" t="s">
+      <c r="X1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="Y1" s="3" t="s">
+      <c r="Y1" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="Z1" s="3" t="s">
+      <c r="Z1" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="AA1" s="3" t="s">
+      <c r="AA1" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="AB1" s="3" t="s">
+      <c r="AB1" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="AC1" s="3" t="s">
+      <c r="AC1" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="AD1" s="3" t="s">
+      <c r="AD1" s="2" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:30" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A2" s="3">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3">
-        <v>0</v>
-      </c>
-      <c r="C2" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="3">
-        <v>0</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="N2" s="3">
-        <v>0</v>
-      </c>
-      <c r="O2" s="3">
-        <v>0</v>
-      </c>
-      <c r="P2" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>0</v>
-      </c>
-      <c r="R2" s="3">
-        <v>0</v>
-      </c>
-      <c r="S2" s="3">
-        <v>0</v>
-      </c>
-      <c r="T2" s="3">
-        <v>0</v>
-      </c>
-      <c r="U2" s="3">
-        <v>0</v>
-      </c>
-      <c r="V2" s="3">
-        <v>0</v>
-      </c>
-      <c r="W2" s="3">
-        <v>0</v>
-      </c>
-      <c r="X2" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y2" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z2" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA2" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB2" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC2" s="3">
-        <v>0</v>
-      </c>
-      <c r="AD2" s="3" t="b">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="2">
+        <v>0</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="N2" s="2">
+        <v>0</v>
+      </c>
+      <c r="O2" s="2">
+        <v>0</v>
+      </c>
+      <c r="P2" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>0</v>
+      </c>
+      <c r="R2" s="2">
+        <v>0</v>
+      </c>
+      <c r="S2" s="2">
+        <v>0</v>
+      </c>
+      <c r="T2" s="2">
+        <v>0</v>
+      </c>
+      <c r="U2" s="2">
+        <v>0</v>
+      </c>
+      <c r="V2" s="2">
+        <v>0</v>
+      </c>
+      <c r="W2" s="2">
+        <v>0</v>
+      </c>
+      <c r="X2" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y2" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z2" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA2" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB2" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC2" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD2" s="2" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:30" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A3" s="3">
+      <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="3">
-        <v>0</v>
-      </c>
-      <c r="C3" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F3" s="3">
-        <v>0</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="L3" s="3" t="s">
+      <c r="B3" s="2">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="2">
+        <v>0</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="L3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="M3" s="3" t="s">
+      <c r="M3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="N3" s="3">
+      <c r="N3" s="2">
         <v>1083349.5399799999</v>
       </c>
-      <c r="O3" s="3">
-        <v>0</v>
-      </c>
-      <c r="P3" s="3">
+      <c r="O3" s="2">
+        <v>0</v>
+      </c>
+      <c r="P3" s="2">
         <v>200</v>
       </c>
-      <c r="Q3" s="3">
-        <v>0</v>
-      </c>
-      <c r="R3" s="3">
-        <v>0</v>
-      </c>
-      <c r="S3" s="3">
+      <c r="Q3" s="2">
+        <v>0</v>
+      </c>
+      <c r="R3" s="2">
+        <v>0</v>
+      </c>
+      <c r="S3" s="2">
         <v>50</v>
       </c>
-      <c r="T3" s="3">
+      <c r="T3" s="2">
         <v>972795.38541999995</v>
       </c>
-      <c r="U3" s="3">
-        <v>0</v>
-      </c>
-      <c r="V3" s="3">
+      <c r="U3" s="2">
+        <v>0</v>
+      </c>
+      <c r="V3" s="2">
         <v>200</v>
       </c>
-      <c r="W3" s="3">
-        <v>0</v>
-      </c>
-      <c r="X3" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y3" s="3">
+      <c r="W3" s="2">
+        <v>0</v>
+      </c>
+      <c r="X3" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y3" s="2">
         <v>50</v>
       </c>
-      <c r="Z3" s="3">
+      <c r="Z3" s="2">
         <v>1083599.5399799999</v>
       </c>
-      <c r="AA3" s="3">
+      <c r="AA3" s="2">
         <v>973045.38541999995</v>
       </c>
-      <c r="AB3" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC3" s="3">
-        <v>0</v>
-      </c>
-      <c r="AD3" s="3" t="b">
+      <c r="AB3" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC3" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD3" s="2" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:30" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A4" s="3">
+      <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" s="3">
-        <v>0</v>
-      </c>
-      <c r="C4" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F4" s="3">
-        <v>0</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L4" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M4" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N4" s="3">
-        <v>0</v>
-      </c>
-      <c r="O4" s="3">
-        <v>0</v>
-      </c>
-      <c r="P4" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="3">
-        <v>0</v>
-      </c>
-      <c r="R4" s="3">
-        <v>0</v>
-      </c>
-      <c r="S4" s="3">
-        <v>0</v>
-      </c>
-      <c r="T4" s="3">
-        <v>0</v>
-      </c>
-      <c r="U4" s="3">
-        <v>0</v>
-      </c>
-      <c r="V4" s="3">
-        <v>0</v>
-      </c>
-      <c r="W4" s="3">
-        <v>0</v>
-      </c>
-      <c r="X4" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y4" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z4" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA4" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB4" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC4" s="3">
-        <v>0</v>
-      </c>
-      <c r="AD4" s="3" t="b">
+      <c r="B4" s="2">
+        <v>0</v>
+      </c>
+      <c r="C4" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="N4" s="2">
+        <v>0</v>
+      </c>
+      <c r="O4" s="2">
+        <v>0</v>
+      </c>
+      <c r="P4" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>0</v>
+      </c>
+      <c r="R4" s="2">
+        <v>0</v>
+      </c>
+      <c r="S4" s="2">
+        <v>0</v>
+      </c>
+      <c r="T4" s="2">
+        <v>0</v>
+      </c>
+      <c r="U4" s="2">
+        <v>0</v>
+      </c>
+      <c r="V4" s="2">
+        <v>0</v>
+      </c>
+      <c r="W4" s="2">
+        <v>0</v>
+      </c>
+      <c r="X4" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y4" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z4" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB4" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC4" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD4" s="2" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:30" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A5" s="3">
+      <c r="A5" s="2">
         <v>4</v>
       </c>
-      <c r="B5" s="3">
-        <v>0</v>
-      </c>
-      <c r="C5" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F5" s="3">
-        <v>0</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K5" s="3" t="s">
+      <c r="B5" s="2">
+        <v>0</v>
+      </c>
+      <c r="C5" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" s="2">
+        <v>0</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="K5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="L5" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M5" s="3" t="s">
+      <c r="L5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="M5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="N5" s="3">
-        <v>0</v>
-      </c>
-      <c r="O5" s="3">
-        <v>0</v>
-      </c>
-      <c r="P5" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="3">
-        <v>0</v>
-      </c>
-      <c r="R5" s="3">
-        <v>0</v>
-      </c>
-      <c r="S5" s="3">
-        <v>0</v>
-      </c>
-      <c r="T5" s="3">
-        <v>0</v>
-      </c>
-      <c r="U5" s="3">
-        <v>0</v>
-      </c>
-      <c r="V5" s="3">
-        <v>0</v>
-      </c>
-      <c r="W5" s="3">
-        <v>0</v>
-      </c>
-      <c r="X5" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y5" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z5" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA5" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB5" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC5" s="3">
-        <v>0</v>
-      </c>
-      <c r="AD5" s="3" t="b">
+      <c r="N5" s="2">
+        <v>0</v>
+      </c>
+      <c r="O5" s="2">
+        <v>0</v>
+      </c>
+      <c r="P5" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>0</v>
+      </c>
+      <c r="R5" s="2">
+        <v>0</v>
+      </c>
+      <c r="S5" s="2">
+        <v>0</v>
+      </c>
+      <c r="T5" s="2">
+        <v>0</v>
+      </c>
+      <c r="U5" s="2">
+        <v>0</v>
+      </c>
+      <c r="V5" s="2">
+        <v>0</v>
+      </c>
+      <c r="W5" s="2">
+        <v>0</v>
+      </c>
+      <c r="X5" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z5" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB5" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC5" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD5" s="2" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:30" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A6" s="3">
-        <v>5</v>
-      </c>
-      <c r="B6" s="3">
-        <v>0</v>
-      </c>
-      <c r="C6" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F6" s="3">
-        <v>0</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K6" s="3" t="s">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2">
+        <v>0</v>
+      </c>
+      <c r="C6" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F6" s="2">
+        <v>0</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="K6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="L6" s="3" t="s">
+      <c r="L6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="M6" s="3" t="s">
+      <c r="M6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="N6" s="3">
+      <c r="N6" s="2">
         <v>-654484.99187078106</v>
       </c>
-      <c r="O6" s="3">
-        <v>0</v>
-      </c>
-      <c r="P6" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="3">
-        <v>0</v>
-      </c>
-      <c r="R6" s="3">
-        <v>0</v>
-      </c>
-      <c r="S6" s="3">
-        <v>0</v>
-      </c>
-      <c r="T6" s="3">
+      <c r="O6" s="2">
+        <v>0</v>
+      </c>
+      <c r="P6" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>0</v>
+      </c>
+      <c r="R6" s="2">
+        <v>0</v>
+      </c>
+      <c r="S6" s="2">
+        <v>0</v>
+      </c>
+      <c r="T6" s="2">
         <v>-654260.57187078102</v>
       </c>
-      <c r="U6" s="3">
-        <v>0</v>
-      </c>
-      <c r="V6" s="3">
-        <v>0</v>
-      </c>
-      <c r="W6" s="3">
-        <v>0</v>
-      </c>
-      <c r="X6" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y6" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z6" s="3">
+      <c r="U6" s="2">
+        <v>0</v>
+      </c>
+      <c r="V6" s="2">
+        <v>0</v>
+      </c>
+      <c r="W6" s="2">
+        <v>0</v>
+      </c>
+      <c r="X6" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="2">
         <v>-654484.99187078106</v>
       </c>
-      <c r="AA6" s="3">
+      <c r="AA6" s="2">
         <v>-654260.57187078102</v>
       </c>
-      <c r="AB6" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC6" s="3">
-        <v>0</v>
-      </c>
-      <c r="AD6" s="3" t="b">
+      <c r="AB6" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC6" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD6" s="2" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:30" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A7" s="3">
+      <c r="A7" s="2">
         <v>6</v>
       </c>
-      <c r="B7" s="3">
-        <v>0</v>
-      </c>
-      <c r="C7" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F7" s="3">
-        <v>0</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J7" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K7" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L7" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M7" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N7" s="3">
-        <v>0</v>
-      </c>
-      <c r="O7" s="3">
-        <v>0</v>
-      </c>
-      <c r="P7" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="3">
-        <v>0</v>
-      </c>
-      <c r="R7" s="3">
-        <v>0</v>
-      </c>
-      <c r="S7" s="3">
-        <v>0</v>
-      </c>
-      <c r="T7" s="3">
-        <v>0</v>
-      </c>
-      <c r="U7" s="3">
-        <v>0</v>
-      </c>
-      <c r="V7" s="3">
-        <v>0</v>
-      </c>
-      <c r="W7" s="3">
-        <v>0</v>
-      </c>
-      <c r="X7" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y7" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z7" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA7" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB7" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC7" s="3">
-        <v>0</v>
-      </c>
-      <c r="AD7" s="3" t="b">
+      <c r="B7" s="2">
+        <v>0</v>
+      </c>
+      <c r="C7" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F7" s="2">
+        <v>0</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="N7" s="2">
+        <v>0</v>
+      </c>
+      <c r="O7" s="2">
+        <v>0</v>
+      </c>
+      <c r="P7" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>0</v>
+      </c>
+      <c r="R7" s="2">
+        <v>0</v>
+      </c>
+      <c r="S7" s="2">
+        <v>0</v>
+      </c>
+      <c r="T7" s="2">
+        <v>0</v>
+      </c>
+      <c r="U7" s="2">
+        <v>0</v>
+      </c>
+      <c r="V7" s="2">
+        <v>0</v>
+      </c>
+      <c r="W7" s="2">
+        <v>0</v>
+      </c>
+      <c r="X7" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC7" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD7" s="2" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:30" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A8" s="3">
+      <c r="A8" s="2">
         <v>7</v>
       </c>
-      <c r="B8" s="3">
-        <v>0</v>
-      </c>
-      <c r="C8" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F8" s="3">
-        <v>0</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K8" s="3" t="s">
+      <c r="B8" s="2">
+        <v>0</v>
+      </c>
+      <c r="C8" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F8" s="2">
+        <v>0</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="K8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="L8" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M8" s="3" t="s">
+      <c r="L8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="M8" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="N8" s="3">
-        <v>0</v>
-      </c>
-      <c r="O8" s="3">
-        <v>0</v>
-      </c>
-      <c r="P8" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="3">
-        <v>0</v>
-      </c>
-      <c r="R8" s="3">
-        <v>0</v>
-      </c>
-      <c r="S8" s="3">
-        <v>0</v>
-      </c>
-      <c r="T8" s="3">
-        <v>0</v>
-      </c>
-      <c r="U8" s="3">
-        <v>0</v>
-      </c>
-      <c r="V8" s="3">
-        <v>0</v>
-      </c>
-      <c r="W8" s="3">
-        <v>0</v>
-      </c>
-      <c r="X8" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y8" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z8" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA8" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB8" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC8" s="3">
-        <v>0</v>
-      </c>
-      <c r="AD8" s="3" t="b">
+      <c r="N8" s="2">
+        <v>0</v>
+      </c>
+      <c r="O8" s="2">
+        <v>0</v>
+      </c>
+      <c r="P8" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="2">
+        <v>0</v>
+      </c>
+      <c r="R8" s="2">
+        <v>0</v>
+      </c>
+      <c r="S8" s="2">
+        <v>0</v>
+      </c>
+      <c r="T8" s="2">
+        <v>0</v>
+      </c>
+      <c r="U8" s="2">
+        <v>0</v>
+      </c>
+      <c r="V8" s="2">
+        <v>0</v>
+      </c>
+      <c r="W8" s="2">
+        <v>0</v>
+      </c>
+      <c r="X8" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB8" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC8" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD8" s="2" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:30" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A9" s="3">
+      <c r="A9" s="2">
         <v>8</v>
       </c>
-      <c r="B9" s="3">
-        <v>0</v>
-      </c>
-      <c r="C9" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F9" s="3">
-        <v>0</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K9" s="3" t="s">
+      <c r="B9" s="2">
+        <v>0</v>
+      </c>
+      <c r="C9" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F9" s="2">
+        <v>0</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="K9" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="L9" s="3" t="s">
+      <c r="L9" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="M9" s="3" t="s">
+      <c r="M9" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="N9" s="3">
+      <c r="N9" s="2">
         <v>20945.561849999998</v>
       </c>
-      <c r="O9" s="3">
-        <v>0</v>
-      </c>
-      <c r="P9" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="3">
-        <v>0</v>
-      </c>
-      <c r="R9" s="3">
-        <v>0</v>
-      </c>
-      <c r="S9" s="3">
-        <v>0</v>
-      </c>
-      <c r="T9" s="3">
+      <c r="O9" s="2">
+        <v>0</v>
+      </c>
+      <c r="P9" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="2">
+        <v>0</v>
+      </c>
+      <c r="R9" s="2">
+        <v>0</v>
+      </c>
+      <c r="S9" s="2">
+        <v>0</v>
+      </c>
+      <c r="T9" s="2">
         <v>26640.2644</v>
       </c>
-      <c r="U9" s="3">
-        <v>0</v>
-      </c>
-      <c r="V9" s="3">
-        <v>0</v>
-      </c>
-      <c r="W9" s="3">
-        <v>0</v>
-      </c>
-      <c r="X9" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y9" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z9" s="3">
+      <c r="U9" s="2">
+        <v>0</v>
+      </c>
+      <c r="V9" s="2">
+        <v>0</v>
+      </c>
+      <c r="W9" s="2">
+        <v>0</v>
+      </c>
+      <c r="X9" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="2">
         <v>20945.561849999998</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AA9" s="2">
         <v>26640.2644</v>
       </c>
-      <c r="AB9" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC9" s="3">
-        <v>0</v>
-      </c>
-      <c r="AD9" s="3" t="b">
+      <c r="AB9" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC9" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD9" s="2" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:30" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A10" s="3">
+      <c r="A10" s="2">
         <v>9</v>
       </c>
-      <c r="B10" s="3">
-        <v>0</v>
-      </c>
-      <c r="C10" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F10" s="3">
-        <v>0</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N10" s="3">
-        <v>0</v>
-      </c>
-      <c r="O10" s="3">
-        <v>0</v>
-      </c>
-      <c r="P10" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="3">
-        <v>0</v>
-      </c>
-      <c r="R10" s="3">
-        <v>0</v>
-      </c>
-      <c r="S10" s="3">
-        <v>0</v>
-      </c>
-      <c r="T10" s="3">
-        <v>0</v>
-      </c>
-      <c r="U10" s="3">
-        <v>0</v>
-      </c>
-      <c r="V10" s="3">
-        <v>0</v>
-      </c>
-      <c r="W10" s="3">
-        <v>0</v>
-      </c>
-      <c r="X10" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y10" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z10" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA10" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB10" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC10" s="3">
-        <v>0</v>
-      </c>
-      <c r="AD10" s="3" t="b">
+      <c r="B10" s="2">
+        <v>0</v>
+      </c>
+      <c r="C10" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F10" s="2">
+        <v>0</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="N10" s="2">
+        <v>0</v>
+      </c>
+      <c r="O10" s="2">
+        <v>0</v>
+      </c>
+      <c r="P10" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="2">
+        <v>0</v>
+      </c>
+      <c r="R10" s="2">
+        <v>0</v>
+      </c>
+      <c r="S10" s="2">
+        <v>0</v>
+      </c>
+      <c r="T10" s="2">
+        <v>0</v>
+      </c>
+      <c r="U10" s="2">
+        <v>0</v>
+      </c>
+      <c r="V10" s="2">
+        <v>0</v>
+      </c>
+      <c r="W10" s="2">
+        <v>0</v>
+      </c>
+      <c r="X10" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y10" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA10" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB10" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC10" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD10" s="2" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:30" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A11" s="3">
+      <c r="A11" s="2">
         <v>10</v>
       </c>
-      <c r="B11" s="3">
-        <v>0</v>
-      </c>
-      <c r="C11" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F11" s="3">
-        <v>0</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I11" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J11" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K11" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L11" s="3" t="s">
+      <c r="B11" s="2">
+        <v>0</v>
+      </c>
+      <c r="C11" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F11" s="2">
+        <v>0</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="L11" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="M11" s="3" t="s">
+      <c r="M11" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="N11" s="3">
+      <c r="N11" s="2">
         <v>428864.54810921999</v>
       </c>
-      <c r="O11" s="3">
-        <v>0</v>
-      </c>
-      <c r="P11" s="3">
+      <c r="O11" s="2">
+        <v>0</v>
+      </c>
+      <c r="P11" s="2">
         <v>200</v>
       </c>
-      <c r="Q11" s="3">
-        <v>0</v>
-      </c>
-      <c r="R11" s="3">
-        <v>0</v>
-      </c>
-      <c r="S11" s="3">
+      <c r="Q11" s="2">
+        <v>0</v>
+      </c>
+      <c r="R11" s="2">
+        <v>0</v>
+      </c>
+      <c r="S11" s="2">
         <v>50</v>
       </c>
-      <c r="T11" s="3">
+      <c r="T11" s="2">
         <v>318534.81354921899</v>
       </c>
-      <c r="U11" s="3">
-        <v>0</v>
-      </c>
-      <c r="V11" s="3">
+      <c r="U11" s="2">
+        <v>0</v>
+      </c>
+      <c r="V11" s="2">
         <v>200</v>
       </c>
-      <c r="W11" s="3">
-        <v>0</v>
-      </c>
-      <c r="X11" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y11" s="3">
+      <c r="W11" s="2">
+        <v>0</v>
+      </c>
+      <c r="X11" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y11" s="2">
         <v>50</v>
       </c>
-      <c r="Z11" s="3">
+      <c r="Z11" s="2">
         <v>429114.54810921999</v>
       </c>
-      <c r="AA11" s="3">
+      <c r="AA11" s="2">
         <v>318784.81354921899</v>
       </c>
-      <c r="AB11" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC11" s="3">
-        <v>0</v>
-      </c>
-      <c r="AD11" s="3" t="b">
+      <c r="AB11" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC11" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD11" s="2" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:30" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A12" s="3">
+      <c r="A12" s="2">
         <v>11</v>
       </c>
-      <c r="B12" s="3">
-        <v>0</v>
-      </c>
-      <c r="C12" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F12" s="3">
-        <v>0</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K12" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L12" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M12" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N12" s="3">
-        <v>0</v>
-      </c>
-      <c r="O12" s="3">
-        <v>0</v>
-      </c>
-      <c r="P12" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q12" s="3">
-        <v>0</v>
-      </c>
-      <c r="R12" s="3">
-        <v>0</v>
-      </c>
-      <c r="S12" s="3">
-        <v>0</v>
-      </c>
-      <c r="T12" s="3">
-        <v>0</v>
-      </c>
-      <c r="U12" s="3">
-        <v>0</v>
-      </c>
-      <c r="V12" s="3">
-        <v>0</v>
-      </c>
-      <c r="W12" s="3">
-        <v>0</v>
-      </c>
-      <c r="X12" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y12" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z12" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA12" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB12" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC12" s="3">
-        <v>0</v>
-      </c>
-      <c r="AD12" s="3" t="b">
+      <c r="B12" s="2">
+        <v>0</v>
+      </c>
+      <c r="C12" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F12" s="2">
+        <v>0</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="M12" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="N12" s="2">
+        <v>0</v>
+      </c>
+      <c r="O12" s="2">
+        <v>0</v>
+      </c>
+      <c r="P12" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="2">
+        <v>0</v>
+      </c>
+      <c r="R12" s="2">
+        <v>0</v>
+      </c>
+      <c r="S12" s="2">
+        <v>0</v>
+      </c>
+      <c r="T12" s="2">
+        <v>0</v>
+      </c>
+      <c r="U12" s="2">
+        <v>0</v>
+      </c>
+      <c r="V12" s="2">
+        <v>0</v>
+      </c>
+      <c r="W12" s="2">
+        <v>0</v>
+      </c>
+      <c r="X12" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y12" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z12" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA12" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB12" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC12" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD12" s="2" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:30" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A13" s="3">
+      <c r="A13" s="2">
         <v>12</v>
       </c>
-      <c r="B13" s="3">
-        <v>0</v>
-      </c>
-      <c r="C13" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F13" s="3">
-        <v>0</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I13" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J13" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K13" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="L13" s="3" t="s">
+      <c r="B13" s="2">
+        <v>0</v>
+      </c>
+      <c r="C13" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F13" s="2">
+        <v>0</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="L13" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M13" s="3" t="s">
+      <c r="M13" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="N13" s="3">
+      <c r="N13" s="2">
         <v>449810.10995921999</v>
       </c>
-      <c r="O13" s="3">
-        <v>0</v>
-      </c>
-      <c r="P13" s="3">
+      <c r="O13" s="2">
+        <v>0</v>
+      </c>
+      <c r="P13" s="2">
         <v>200</v>
       </c>
-      <c r="Q13" s="3">
-        <v>0</v>
-      </c>
-      <c r="R13" s="3">
-        <v>0</v>
-      </c>
-      <c r="S13" s="3">
+      <c r="Q13" s="2">
+        <v>0</v>
+      </c>
+      <c r="R13" s="2">
+        <v>0</v>
+      </c>
+      <c r="S13" s="2">
         <v>50</v>
       </c>
-      <c r="T13" s="3">
+      <c r="T13" s="2">
         <v>345175.07794921898</v>
       </c>
-      <c r="U13" s="3">
-        <v>0</v>
-      </c>
-      <c r="V13" s="3">
+      <c r="U13" s="2">
+        <v>0</v>
+      </c>
+      <c r="V13" s="2">
         <v>200</v>
       </c>
-      <c r="W13" s="3">
-        <v>0</v>
-      </c>
-      <c r="X13" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y13" s="3">
+      <c r="W13" s="2">
+        <v>0</v>
+      </c>
+      <c r="X13" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="2">
         <v>50</v>
       </c>
-      <c r="Z13" s="3">
+      <c r="Z13" s="2">
         <v>450060.10995921999</v>
       </c>
-      <c r="AA13" s="3">
+      <c r="AA13" s="2">
         <v>345425.07794921898</v>
       </c>
-      <c r="AB13" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC13" s="3">
-        <v>0</v>
-      </c>
-      <c r="AD13" s="3" t="b">
+      <c r="AB13" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC13" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD13" s="2" t="b">
         <v>1</v>
       </c>
     </row>
